--- a/data/trans_dic/P34_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3861968808963301</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4509945093273122</v>
+        <v>0.4509945093273121</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.40776489011371</v>
+        <v>0.4023491781651066</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2770594458743456</v>
+        <v>0.272122692172745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4013383801717779</v>
+        <v>0.3991088063351114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4466168404487</v>
+        <v>0.4429935881677252</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3264949809340836</v>
+        <v>0.3302614458990791</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2488010757655593</v>
+        <v>0.2452294064408562</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2636069508358667</v>
+        <v>0.2529970484026424</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3698233009473233</v>
+        <v>0.3706283730396249</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3881104664895157</v>
+        <v>0.3855928289935868</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2773543959510217</v>
+        <v>0.2777696895110294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3491207346884254</v>
+        <v>0.3507397536819166</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.420945923891286</v>
+        <v>0.4210125948701542</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5062260388745672</v>
+        <v>0.49888380687365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3740042816618546</v>
+        <v>0.3723043963934458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4998084748669104</v>
+        <v>0.4997584272044762</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5332405883808313</v>
+        <v>0.5289637757284353</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.436252052026402</v>
+        <v>0.4421000367821917</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3625334930090103</v>
+        <v>0.3651820709535694</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3643556853100385</v>
+        <v>0.3561717607152786</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4466325073017238</v>
+        <v>0.4469717839535987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.461192446738564</v>
+        <v>0.4581794535570305</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.350672052294165</v>
+        <v>0.3512962814863409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4230400978120177</v>
+        <v>0.4236936707203057</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4799553152356734</v>
+        <v>0.4834238853785969</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3911631629103833</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5140478575336469</v>
+        <v>0.514047857533647</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5303528983008888</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4733206730760817</v>
+        <v>0.4706890572425869</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3487766037805285</v>
+        <v>0.3472859717907502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4277712580605771</v>
+        <v>0.4295582377311901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4475726211947547</v>
+        <v>0.4437543801113912</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4863610609116272</v>
+        <v>0.4802443103033456</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2781353090447842</v>
+        <v>0.2780907293741731</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3380331161073157</v>
+        <v>0.3392222423919378</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4750695185011822</v>
+        <v>0.4717627840158714</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4935427565967415</v>
+        <v>0.4932204467997164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3356627113647064</v>
+        <v>0.3359489510785716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3988389005351367</v>
+        <v>0.4021467808217409</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4695667634867636</v>
+        <v>0.4708923725207552</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5830177881852374</v>
+        <v>0.5799908010008369</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4533210194170712</v>
+        <v>0.4569163360100679</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5338165490686805</v>
+        <v>0.5325718066994426</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5421305499083551</v>
+        <v>0.5459471986227117</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5845875747980676</v>
+        <v>0.5823987308336153</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3852372387744174</v>
+        <v>0.3888562254228696</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4467213693775325</v>
+        <v>0.4469097192885083</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5558557138767949</v>
+        <v>0.5571247219923863</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.566010721743008</v>
+        <v>0.5680934412715154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4078593610098965</v>
+        <v>0.4145050862707864</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4738783494753755</v>
+        <v>0.4783153491861776</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5378671727922774</v>
+        <v>0.5326590976602928</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1824486836635039</v>
+        <v>0.1828181575718124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1859914341895324</v>
+        <v>0.1866806011525186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2477800565871743</v>
+        <v>0.2472672474145381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.212109869496215</v>
+        <v>0.2145917683453367</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1469138118495429</v>
+        <v>0.1448220199727747</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1898050452397393</v>
+        <v>0.1924511478341004</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2480764544551811</v>
+        <v>0.2391731739793756</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2624950127279261</v>
+        <v>0.263835321205331</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1838978508389923</v>
+        <v>0.18332609770276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.195443198631758</v>
+        <v>0.1977139573994484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2618014490305514</v>
+        <v>0.2578465894457597</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2373317242506556</v>
+        <v>0.2376119756723612</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.249077942390289</v>
+        <v>0.2546471195109036</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2574797415340431</v>
+        <v>0.2604309258598022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3308427941278836</v>
+        <v>0.3287430480683847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2916782278378564</v>
+        <v>0.2928943478483879</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2720303307707922</v>
+        <v>0.2725692629048705</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2993782801170653</v>
+        <v>0.3023833635050658</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4006958964240048</v>
+        <v>0.4027272560224261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3691358691034058</v>
+        <v>0.3763105723605365</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2445146720588665</v>
+        <v>0.2442889758164231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.256653444151354</v>
+        <v>0.2583232807379812</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3330737589155324</v>
+        <v>0.3275663391131408</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3032504764314245</v>
+        <v>0.305962038569441</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2006671627113941</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2083653917904833</v>
+        <v>0.2083653917904834</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2759626551918329</v>
@@ -1105,7 +1105,7 @@
         <v>0.2726524303892812</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2663344624964051</v>
+        <v>0.266334462496405</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3026832949226394</v>
+        <v>0.3020990970803863</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2543094966141989</v>
+        <v>0.2528531688465002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2994431562830671</v>
+        <v>0.2989557549995979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2843061605178854</v>
+        <v>0.2835697553406691</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1563234389513181</v>
+        <v>0.1553888034965673</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1382990569005356</v>
+        <v>0.137936890355649</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1719094086135542</v>
+        <v>0.1718184610648228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1849457957870272</v>
+        <v>0.1849260828178247</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2551715630110454</v>
+        <v>0.2557955880908592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2138747927659476</v>
+        <v>0.2148953171365975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2520740764269315</v>
+        <v>0.2538098852597605</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2465263216277861</v>
+        <v>0.2474224210101056</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3546612711006094</v>
+        <v>0.3533848982209016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3069004240368677</v>
+        <v>0.3056691949613591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3524066418159848</v>
+        <v>0.3541192292692667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3426638385355622</v>
+        <v>0.3392617856755195</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2174545566932808</v>
+        <v>0.2177169788354576</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1940551194957002</v>
+        <v>0.1940451515272364</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2312926458271826</v>
+        <v>0.2292992873274198</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2337032518287219</v>
+        <v>0.2329692883901025</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2960410263582837</v>
+        <v>0.2980974152724934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2531084868984009</v>
+        <v>0.2546664632749292</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2928130324952568</v>
+        <v>0.2939927187403458</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2872360039343771</v>
+        <v>0.2873928737230819</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2343656763691486</v>
+        <v>0.2331152666947517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2281209735952104</v>
+        <v>0.2322825054296263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.279961597965306</v>
+        <v>0.2854959998034974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2030464081547861</v>
+        <v>0.2068120550730017</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1199622869626453</v>
+        <v>0.1220213095467997</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2141930471720261</v>
+        <v>0.2116060186771902</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2087701715998895</v>
+        <v>0.2094400990599547</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2393506132276267</v>
+        <v>0.2391176174418633</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1756174272595302</v>
+        <v>0.1738838155561223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2279789237756647</v>
+        <v>0.2276640150038124</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2546788952374063</v>
+        <v>0.2565354172381264</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2336458026015344</v>
+        <v>0.2352796687603787</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3291484935578814</v>
+        <v>0.3303332604077911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.306920066602967</v>
+        <v>0.3106210624204276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3581660207109781</v>
+        <v>0.3595382588327637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2746729138088683</v>
+        <v>0.2791241963752802</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1843838635257943</v>
+        <v>0.1823823731925675</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2777252937060682</v>
+        <v>0.2782812499637686</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2744957371355901</v>
+        <v>0.2778970958041333</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2890624967903475</v>
+        <v>0.2865247485552378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2272357047933029</v>
+        <v>0.2291183749521208</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.27758413035817</v>
+        <v>0.2804634909760942</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3051438027068485</v>
+        <v>0.3074358957110173</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2782275016777866</v>
+        <v>0.276588636544206</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4353689595772736</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4368901314727965</v>
+        <v>0.4368901314727964</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7408242695046304</v>
+        <v>0.7427043756909413</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5790803308539839</v>
+        <v>0.5762698287590972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4290846830258209</v>
+        <v>0.4252054196433284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3057275197362876</v>
+        <v>0.3125956518975341</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3650793464750071</v>
+        <v>0.3649595669432127</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3798082357993898</v>
+        <v>0.3822447674788036</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3911918479850757</v>
+        <v>0.3909911873948705</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4117132015621828</v>
+        <v>0.4143366665493988</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4427802946793538</v>
+        <v>0.4425398217794706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4286160591219659</v>
+        <v>0.42984662983885</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4067651823502623</v>
+        <v>0.4073569714950044</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4016177031965236</v>
+        <v>0.4046710635993319</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8331649196146629</v>
+        <v>0.8311567471408692</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6924058797090162</v>
+        <v>0.6974837930538889</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5468689060116285</v>
+        <v>0.5491103640676109</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5102415999727874</v>
+        <v>0.5065322780950454</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4191525302118287</v>
+        <v>0.4191313137619587</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.443992478166328</v>
+        <v>0.4431590419704891</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4529018006321657</v>
+        <v>0.4523343944580855</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4790235673921929</v>
+        <v>0.4822229542015632</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4917538396251412</v>
+        <v>0.4935120117193763</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4822912665434231</v>
+        <v>0.4828990310369634</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4612150768118615</v>
+        <v>0.4635907114749354</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4708663922756263</v>
+        <v>0.4687320935897839</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3655344281920129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3512748290841666</v>
+        <v>0.3512748290841665</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3126808527480273</v>
@@ -1501,7 +1501,7 @@
         <v>0.3130380828696126</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3440255120124252</v>
+        <v>0.3440255120124251</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3492383776635263</v>
@@ -1513,7 +1513,7 @@
         <v>0.3386896455741497</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3475473587903989</v>
+        <v>0.347547358790399</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3701007874124985</v>
+        <v>0.3690552256717158</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2986143562781441</v>
+        <v>0.2983948726426327</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3485477869307166</v>
+        <v>0.3480844273343808</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3337173469164384</v>
+        <v>0.3333782447143839</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2965236659290225</v>
+        <v>0.2968159567423257</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2791351007259331</v>
+        <v>0.2770121422875192</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2973400690455529</v>
+        <v>0.2971336019342968</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3295381299311531</v>
+        <v>0.3311394719342297</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3383932952724042</v>
+        <v>0.3379563101160823</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2923809230202151</v>
+        <v>0.2926510393330923</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3266608525262661</v>
+        <v>0.327250951835319</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.336519939621881</v>
+        <v>0.3370520875933569</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.405970760525767</v>
+        <v>0.40415780849302</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3313632815600729</v>
+        <v>0.3301569754587069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3828771052790574</v>
+        <v>0.3817898544268557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.369274390909936</v>
+        <v>0.3685010264582644</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3274875503390713</v>
+        <v>0.3279737200737917</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3104969872102117</v>
+        <v>0.3097902176950755</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3289026700556507</v>
+        <v>0.3299020947402024</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3581832585084255</v>
+        <v>0.358100772870335</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3606401904911217</v>
+        <v>0.3603319863435041</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.315926251620344</v>
+        <v>0.3161413757905352</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3507618273847695</v>
+        <v>0.3505977908391765</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3584065893899474</v>
+        <v>0.3593520727466925</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>189471</v>
+        <v>186955</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>120852</v>
+        <v>118699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>171415</v>
+        <v>170463</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>245279</v>
+        <v>243289</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>99121</v>
+        <v>100265</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77976</v>
+        <v>76857</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>90348</v>
+        <v>86712</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>180382</v>
+        <v>180774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>298166</v>
+        <v>296232</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>207906</v>
+        <v>208217</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>268770</v>
+        <v>270016</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>436498</v>
+        <v>436567</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>235222</v>
+        <v>231810</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>163140</v>
+        <v>162398</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>213473</v>
+        <v>213451</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>292853</v>
+        <v>290504</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>132443</v>
+        <v>134218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>113621</v>
+        <v>114451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>124879</v>
+        <v>122074</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>217845</v>
+        <v>218011</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>354311</v>
+        <v>351996</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>262865</v>
+        <v>263333</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>325677</v>
+        <v>326180</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>497687</v>
+        <v>501284</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172766</v>
+        <v>171806</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>144641</v>
+        <v>144023</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>159322</v>
+        <v>159988</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>214688</v>
+        <v>212856</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>180366</v>
+        <v>178097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>92642</v>
+        <v>92627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>125523</v>
+        <v>125964</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>200030</v>
+        <v>198638</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>363176</v>
+        <v>362939</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>251006</v>
+        <v>251220</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>296649</v>
+        <v>299109</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>422951</v>
+        <v>424145</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>212807</v>
+        <v>211702</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>187997</v>
+        <v>189488</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>198818</v>
+        <v>198355</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>260044</v>
+        <v>261875</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>216793</v>
+        <v>215981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>128316</v>
+        <v>129521</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>165882</v>
+        <v>165952</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>234046</v>
+        <v>234580</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>416502</v>
+        <v>418035</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>304994</v>
+        <v>309964</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>352462</v>
+        <v>355762</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>484471</v>
+        <v>479780</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>97662</v>
+        <v>97859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116156</v>
+        <v>116587</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127416</v>
+        <v>127152</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>99804</v>
+        <v>100972</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24478</v>
+        <v>24130</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49184</v>
+        <v>49869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40707</v>
+        <v>39246</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48828</v>
+        <v>49077</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>129078</v>
+        <v>128676</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>172704</v>
+        <v>174711</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>177585</v>
+        <v>174903</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>155819</v>
+        <v>156003</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>133327</v>
+        <v>136308</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>160803</v>
+        <v>162646</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>170129</v>
+        <v>169049</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>137244</v>
+        <v>137816</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77577</v>
+        <v>78356</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65751</v>
+        <v>66084</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>68665</v>
+        <v>69999</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>171624</v>
+        <v>171466</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>226793</v>
+        <v>228268</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>225931</v>
+        <v>222195</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>199098</v>
+        <v>200878</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>372512</v>
+        <v>371793</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>293189</v>
+        <v>291510</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>343186</v>
+        <v>342628</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>317461</v>
+        <v>316638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110594</v>
+        <v>109933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>105185</v>
+        <v>104909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>141418</v>
+        <v>141343</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158385</v>
+        <v>158368</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>494565</v>
+        <v>495775</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>409237</v>
+        <v>411190</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>496261</v>
+        <v>499679</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>486396</v>
+        <v>488164</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>436481</v>
+        <v>434910</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>353820</v>
+        <v>352401</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>403887</v>
+        <v>405850</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>382624</v>
+        <v>378825</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>153842</v>
+        <v>154028</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>147590</v>
+        <v>147583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>190268</v>
+        <v>188628</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>200140</v>
+        <v>199511</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>573777</v>
+        <v>577763</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>484308</v>
+        <v>487289</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>576465</v>
+        <v>578787</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>566716</v>
+        <v>567026</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80918</v>
+        <v>80486</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>114943</v>
+        <v>117040</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>172025</v>
+        <v>175425</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>114821</v>
+        <v>116951</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>67776</v>
+        <v>68939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>161798</v>
+        <v>159843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>153259</v>
+        <v>153751</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>197926</v>
+        <v>197734</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>159854</v>
+        <v>158276</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>287083</v>
+        <v>286686</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>343450</v>
+        <v>345953</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>325334</v>
+        <v>327609</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>113643</v>
+        <v>114052</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>154648</v>
+        <v>156512</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>220078</v>
+        <v>220921</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>155325</v>
+        <v>157843</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>104173</v>
+        <v>103042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>209789</v>
+        <v>210209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>201508</v>
+        <v>204005</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>239035</v>
+        <v>236936</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>206839</v>
+        <v>208553</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>349548</v>
+        <v>353174</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>411505</v>
+        <v>414596</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>387410</v>
+        <v>385128</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>219214</v>
+        <v>219770</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>154027</v>
+        <v>153279</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>122346</v>
+        <v>121240</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>71328</v>
+        <v>72931</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>452192</v>
+        <v>452043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>418860</v>
+        <v>421547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>422812</v>
+        <v>422595</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>344212</v>
+        <v>346406</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>679454</v>
+        <v>679085</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>586692</v>
+        <v>588376</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>555626</v>
+        <v>556435</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>429472</v>
+        <v>432737</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>246538</v>
+        <v>245943</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>184170</v>
+        <v>185520</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>155930</v>
+        <v>156569</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>119043</v>
+        <v>118178</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>519167</v>
+        <v>519141</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>489644</v>
+        <v>488725</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>489510</v>
+        <v>488897</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>400487</v>
+        <v>403162</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>754605</v>
+        <v>757303</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>660163</v>
+        <v>660995</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>630003</v>
+        <v>633248</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>503524</v>
+        <v>501241</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1197949</v>
+        <v>1194565</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1014742</v>
+        <v>1013996</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1170931</v>
+        <v>1169375</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1139582</v>
+        <v>1138424</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>993981</v>
+        <v>994961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>983777</v>
+        <v>976295</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1045367</v>
+        <v>1044641</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1191012</v>
+        <v>1196799</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2229650</v>
+        <v>2226771</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2024020</v>
+        <v>2025890</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2245853</v>
+        <v>2249911</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2365398</v>
+        <v>2369138</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1314053</v>
+        <v>1308185</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1126028</v>
+        <v>1121929</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1286259</v>
+        <v>1282607</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1261002</v>
+        <v>1258361</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1097775</v>
+        <v>1099405</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1094308</v>
+        <v>1091817</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1156332</v>
+        <v>1159846</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1294541</v>
+        <v>1294242</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2376233</v>
+        <v>2374203</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2187014</v>
+        <v>2188503</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2411552</v>
+        <v>2410424</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2519239</v>
+        <v>2525885</v>
       </c>
     </row>
     <row r="32">
